--- a/RequirementsExamples.xlsx
+++ b/RequirementsExamples.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>REQ1</t>
   </si>
@@ -53,32 +53,13 @@
     <t>TEST-2</t>
   </si>
   <si>
-    <t>steps and results</t>
-  </si>
-  <si>
     <t>Make a new appointment</t>
   </si>
   <si>
-    <t>Description of TEST-3.1</t>
-  </si>
-  <si>
-    <t>Description of TEST-3.3</t>
-  </si>
-  <si>
-    <t>Steps and results of 3.3</t>
-  </si>
-  <si>
     <t>Cancel an appointment</t>
   </si>
   <si>
     <t>Test for canceling an appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                                                                                                                                                                                                Step 1.  Go to the list of the appointments anc click on the lable Cancel next to the appointment
-Expected:  A  pop-up window is shown
-Step 2. Click on the Cancel button to confirm the cancellation.
-Expected: The appointment is cancelled, removed from the list of the appointments and an email is sent to the practice.</t>
   </si>
   <si>
     <t>john.mayer986@gmail.com</t>
@@ -230,9 +211,6 @@
     <t>Test for the group chat management - adding doctors to a group</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t xml:space="preserve">The doctors can meet through the group chat or video call for a consultation. The chat/video manager shows the availability of a doctor (status).  </t>
   </si>
   <si>
@@ -376,6 +354,62 @@
 5.  Change the data (e.g. marrage status) and save the changes
 Expected: The page with the data of the patient is shown and the data are updated accordingly 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                                                                                                                                                                                                Step 1.  Go to the list of the appointments and click on the lable Cancel, next to the appointment
+Expected:  A  pop-up window is shown
+Step 2. Click on the Cancel button to confirm the cancellation.
+Expected: The appointment is cancelled, removed from the list of the appointments and an email is sent to the practice.</t>
+  </si>
+  <si>
+    <t>Test for making a new appointment for the existing patients</t>
+  </si>
+  <si>
+    <t>Test for making a new appointment for the temporary patients</t>
+  </si>
+  <si>
+    <t>Step 1. Log-in as a doctor 
+Expected: Login successful 
+Step 2.  Open the form for making a new appointment
+Expected: The form is shown.
+Step 3. Insert the details of the appointment (description, date and time)  and click on "Choose patient"
+Expected: The form for adding new patient is opened
+Step 4. Find the patient in the system and choose it
+Expected: The patient is successfully chosen and the page with the details of the appontment is shown
+Step 5. Save the appointment
+Expected: The list of the comming appointments for the doctor is shown and the new appointment is listed.</t>
+  </si>
+  <si>
+    <t>Step 1. Log-in as a doctor 
+Expected: Login successful 
+Step 2.  Open the form for making a new appointment
+Expected: The form is shown.
+Step 3. Insert the details of the appointment (description, date and time)  and click on "Choose patient"
+Expected: The form for adding new patient is opened
+Step 4. Filter by temporary patients (check the fielt "Temporary") and choose the patient
+Expected: The patient is successfully chosen and the page with the details of the appontment is shown
+Step 5. Save the appointment
+Expected: The list of the comming appointments for the doctor is shown and the new appointment is listed.</t>
+  </si>
+  <si>
+    <t>Test case for managing online meetings</t>
+  </si>
+  <si>
+    <t>Step1. Login as a doctor
+Login successful
+Step2. Go to manage meetings section
+Expected: the manage meetings section is opened and the doctor can set up a neew chat or video meeting
+3. Set the title of the meeting
+Expected the title is set
+4. Choose video/chat
+Expected: video or chat is set 
+5. Add participants (other doctors)
+Expected: doctors are added
+6. Set the time and date
+Expected: time and date are set
+7. Save the meeting and send the email to participants
+Expected: meeting is saved and listed under My meetings and other participants are notified via email.</t>
   </si>
 </sst>
 </file>
@@ -725,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,118 +779,120 @@
     <col min="14" max="14" width="17.83203125" customWidth="1"/>
     <col min="15" max="15" width="53.33203125" customWidth="1"/>
     <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="19" max="19" width="46.5" customWidth="1"/>
+    <col min="20" max="20" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
@@ -864,34 +900,34 @@
     </row>
     <row r="3" spans="1:21" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -903,34 +939,34 @@
     </row>
     <row r="4" spans="1:21" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -938,101 +974,101 @@
       <c r="O4" s="1"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="288" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>3</v>
@@ -1043,66 +1079,66 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="192" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="224" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>3</v>
@@ -1110,69 +1146,69 @@
     </row>
     <row r="9" spans="1:21" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="320" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>3</v>
